--- a/medicine/Psychotrope/Aglianico_del_Taburno_rosso_riserva/Aglianico_del_Taburno_rosso_riserva.xlsx
+++ b/medicine/Psychotrope/Aglianico_del_Taburno_rosso_riserva/Aglianico_del_Taburno_rosso_riserva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Aglianico del Taburno rosso riserva est un vin italien, produit dans la région Campanie, doté d'une appellation DOC depuis le 29 octobre 1986. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -513,7 +525,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Bénévent dans les communes Apollosa, Bonea, Campoli del Monte Taburno, Castelpoto, Foglianise, Montesarchio, Paupisi, Torrecuso et Ponte ainsi qu'en partie dans les communes Benevento, Cautano, Vitulano et Tocco Caudio. 
 Les vignobles se situent sur les pentes du mont Taburno à 40 km de Naples.
@@ -545,7 +559,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis, tendant au rouge grenat avec le vieillissement
 odeur : fruits rouges, agréable, caractéristique
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
